--- a/DataTables/FACTURACION/EmitirAnticipoSacsa.xlsx
+++ b/DataTables/FACTURACION/EmitirAnticipoSacsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30743447-C99A-4477-82FA-8D36CC70EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD72504-8885-471A-9D6B-CE375B528EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="124">
   <si>
     <t>usuario</t>
   </si>
@@ -102,9 +102,18 @@
     <t>Anticipos</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Factura A Webservice</t>
   </si>
   <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>0003-00001220</t>
+  </si>
+  <si>
     <t>FINCA LAS MAGDALENAS S. A. S.</t>
   </si>
   <si>
@@ -114,22 +123,43 @@
     <t>Otras ventas</t>
   </si>
   <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
     <t>544500</t>
   </si>
   <si>
+    <t>2025-VEN-3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>0003-00001221</t>
+  </si>
+  <si>
     <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
   </si>
   <si>
     <t>181500</t>
   </si>
   <si>
+    <t>2025-VEN-4</t>
+  </si>
+  <si>
+    <t>0003-00001222</t>
+  </si>
+  <si>
     <t>FOA AGUAS DE ALTAMIRA</t>
   </si>
   <si>
     <t>108900</t>
   </si>
   <si>
-    <t>SI</t>
+    <t>2025-VEN-5</t>
+  </si>
+  <si>
+    <t>0003-00001223</t>
   </si>
   <si>
     <t>FOI TERRUÑOS DE LOS ANDES</t>
@@ -138,24 +168,51 @@
     <t>1815000</t>
   </si>
   <si>
+    <t>2025-VEN-6</t>
+  </si>
+  <si>
+    <t>0003-00001224</t>
+  </si>
+  <si>
     <t>GRANAR S.A.C y F.</t>
   </si>
   <si>
     <t>1210000</t>
   </si>
   <si>
+    <t>2025-VEN-7</t>
+  </si>
+  <si>
+    <t>0003-00001225</t>
+  </si>
+  <si>
     <t>LLORENTE HNOS SA</t>
   </si>
   <si>
+    <t>2025-VEN-8</t>
+  </si>
+  <si>
+    <t>0003-00001226</t>
+  </si>
+  <si>
     <t>LOS NATIVOS S.A.</t>
   </si>
   <si>
     <t>726000</t>
   </si>
   <si>
+    <t>2025-VEN-9</t>
+  </si>
+  <si>
+    <t>0003-00001227</t>
+  </si>
+  <si>
     <t>TELLERIA JUAN GABRIEL</t>
   </si>
   <si>
+    <t>2025-VEN-10</t>
+  </si>
+  <si>
     <t>t_cliente</t>
   </si>
   <si>
@@ -201,6 +258,9 @@
     <t>450000</t>
   </si>
   <si>
+    <t>ANTICIPO</t>
+  </si>
+  <si>
     <t>Concepto</t>
   </si>
   <si>
@@ -346,36 +406,6 @@
   </si>
   <si>
     <t>ADM-ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>28/06/2024</t>
-  </si>
-  <si>
-    <t>28/06/2025</t>
-  </si>
-  <si>
-    <t>28/06/2026</t>
-  </si>
-  <si>
-    <t>28/06/2027</t>
-  </si>
-  <si>
-    <t>28/06/2028</t>
-  </si>
-  <si>
-    <t>28/06/2029</t>
-  </si>
-  <si>
-    <t>28/06/2030</t>
-  </si>
-  <si>
-    <t>28/06/2031</t>
-  </si>
-  <si>
-    <t>JUNIO</t>
-  </si>
-  <si>
-    <t>ANTICIPO</t>
   </si>
 </sst>
 </file>
@@ -385,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,12 +434,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -860,103 +884,103 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -981,116 +1005,116 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1103,8 +1127,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,32 +1204,37 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="12"/>
@@ -1216,32 +1245,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="12"/>
@@ -1252,32 +1286,37 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="I4" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="12"/>
@@ -1288,32 +1327,37 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="12"/>
@@ -1324,34 +1368,38 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1361,32 +1409,37 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="12"/>
@@ -1397,32 +1450,37 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="12"/>
@@ -1433,32 +1491,37 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="12"/>
@@ -1515,7 +1578,6 @@
       <sortCondition ref="D1:D11"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1546,34 +1608,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1768,34 +1830,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1910,31 +1972,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2066,31 +2128,31 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,7 +2237,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2192,57 +2254,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" ref="I2:I9" si="0">VALUE(D2)</f>
@@ -2251,28 +2313,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" si="0"/>
@@ -2281,28 +2343,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
@@ -2311,28 +2373,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
@@ -2341,28 +2403,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
@@ -2371,28 +2433,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="0"/>
@@ -2401,28 +2463,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
@@ -2431,28 +2493,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I9" s="12">
         <f t="shared" si="0"/>
@@ -2485,10 +2547,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2497,7 +2559,7 @@
         <v>0.105</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2506,7 +2568,7 @@
         <v>0.21</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2531,26 +2593,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
